--- a/biology/Médecine/Louis-Vincent_Cartier/Louis-Vincent_Cartier.xlsx
+++ b/biology/Médecine/Louis-Vincent_Cartier/Louis-Vincent_Cartier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Vincent Cartier, né le 26 septembre 1768 à Saint-Laurent-de-Mure et mort à Lyon le 23 janvier 1839[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Vincent Cartier, né le 26 septembre 1768 à Saint-Laurent-de-Mure et mort à Lyon le 23 janvier 1839, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de chirurgien, Né à St Laurent de Mure, Louis-Vincent Cartier commence ses études de médecine avec Pierre Joseph Desault à Paris[2] puis est admis interne le 19 décembre 1789 à l'Hôtel-Dieu de Lyon et devient chirurgien de l'armée des Alpes[3]. Il revient à Lyon en 1794 en tant qu'adjoint de Marc-Antoine Petit. Il lui succède comme chirurgien-major du 2 décembre 1799 au 31 décembre 1805. Il participe au premier enseignement médico-chirurgical à l'Hôtel-Dieu[4].
-Il a été membre de l'Académie des sciences, belles-lettres et arts de Lyon dès sa reconstitution en 1800[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de chirurgien, Né à St Laurent de Mure, Louis-Vincent Cartier commence ses études de médecine avec Pierre Joseph Desault à Paris puis est admis interne le 19 décembre 1789 à l'Hôtel-Dieu de Lyon et devient chirurgien de l'armée des Alpes. Il revient à Lyon en 1794 en tant qu'adjoint de Marc-Antoine Petit. Il lui succède comme chirurgien-major du 2 décembre 1799 au 31 décembre 1805. Il participe au premier enseignement médico-chirurgical à l'Hôtel-Dieu.
+Il a été membre de l'Académie des sciences, belles-lettres et arts de Lyon dès sa reconstitution en 1800.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications et discours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Précis d'observations de chirurgie faites à l'Hôtel-Dieu de Lyon ;
 Discours sur l'esprit qui doit diriger le manuel des observations de chirurgie ;
